--- a/Excel/Hotelpositive.xlsx
+++ b/Excel/Hotelpositive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Username</t>
   </si>
@@ -102,12 +102,6 @@
     <t>AEBR01</t>
   </si>
   <si>
-    <t>jordan</t>
-  </si>
-  <si>
-    <t>testt</t>
-  </si>
-  <si>
     <t>BRANCH - Ms. Comp 2 Branch  B</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>Nov</t>
   </si>
   <si>
-    <t>'4</t>
-  </si>
-  <si>
     <t>Dubai</t>
   </si>
   <si>
@@ -213,27 +204,185 @@
     <t>hotelConfirmationNumber</t>
   </si>
   <si>
-    <t>HGFLF</t>
-  </si>
-  <si>
     <t>hotelBookingReference</t>
   </si>
   <si>
-    <t>REDFG</t>
-  </si>
-  <si>
     <t>Hotlbookings</t>
   </si>
   <si>
     <t>Commonindex</t>
+  </si>
+  <si>
+    <t>Processtype</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>hvdroomrate</t>
+  </si>
+  <si>
+    <t>hoteltfdBaseFare</t>
+  </si>
+  <si>
+    <t>Lodgecard</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>HDFC Card</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>Taxcodee</t>
+  </si>
+  <si>
+    <t>Servicefeename</t>
+  </si>
+  <si>
+    <t>ASF</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>HotelAtAmount</t>
+  </si>
+  <si>
+    <t>hotelBaseAmount</t>
+  </si>
+  <si>
+    <t>HTL001</t>
+  </si>
+  <si>
+    <t>hotelFareCommPercent1</t>
+  </si>
+  <si>
+    <t>hotelFareCommPercent2</t>
+  </si>
+  <si>
+    <t>hotelFareCommPercent3</t>
+  </si>
+  <si>
+    <t>hotelHOHotelHighFare</t>
+  </si>
+  <si>
+    <t>hotelHOHotelCompareFare</t>
+  </si>
+  <si>
+    <t>hotelHoRateAccessCode</t>
+  </si>
+  <si>
+    <t>hotelHOReasonCode</t>
+  </si>
+  <si>
+    <t>hotelHOGDSPropertyCode</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>EDFRG</t>
+  </si>
+  <si>
+    <t>hotelBookingDate1</t>
+  </si>
+  <si>
+    <t>hotelBookingDate2</t>
+  </si>
+  <si>
+    <t>hotelBookingDate3</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Bookingpcc</t>
+  </si>
+  <si>
+    <t>Issuedpcc</t>
+  </si>
+  <si>
+    <t>pcc 5444</t>
+  </si>
+  <si>
+    <t>Agentincentive</t>
+  </si>
+  <si>
+    <t>Agent001</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>AE - CRYSTAL TRADING - EXMPT</t>
+  </si>
+  <si>
+    <t>Hotelbookings</t>
+  </si>
+  <si>
+    <t>QWERS</t>
+  </si>
+  <si>
+    <t>ProjectNumberAP</t>
+  </si>
+  <si>
+    <t>DepartmentAP</t>
+  </si>
+  <si>
+    <t>MajorClassAP</t>
+  </si>
+  <si>
+    <t>TravelStatusAP</t>
+  </si>
+  <si>
+    <t>TotalSavingCodeAP</t>
+  </si>
+  <si>
+    <t>GroupTravelIndicatorAP</t>
+  </si>
+  <si>
+    <t>TourCodeAP</t>
+  </si>
+  <si>
+    <t>EndorsementRestrictAP</t>
+  </si>
+  <si>
+    <t>FareCalculationAreaAP</t>
+  </si>
+  <si>
+    <t>IntlSalesIndicatorAP</t>
+  </si>
+  <si>
+    <t>910292039</t>
+  </si>
+  <si>
+    <t>TESTT</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -282,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,12 +763,12 @@
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" customWidth="1"/>
@@ -640,9 +790,40 @@
     <col min="41" max="41" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.85546875" customWidth="1"/>
+    <col min="45" max="45" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="14" customWidth="1"/>
+    <col min="47" max="47" width="18.140625" customWidth="1"/>
+    <col min="48" max="48" width="13.5703125" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" customWidth="1"/>
+    <col min="50" max="50" width="14.85546875" customWidth="1"/>
+    <col min="51" max="51" width="18.28515625" customWidth="1"/>
+    <col min="52" max="52" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="23" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.42578125" customWidth="1"/>
+    <col min="63" max="63" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.140625" customWidth="1"/>
+    <col min="65" max="65" width="12.5703125" customWidth="1"/>
+    <col min="66" max="66" width="15.85546875" customWidth="1"/>
+    <col min="67" max="67" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:76">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,88 +873,187 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AM1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="AW1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:76">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -805,46 +1085,46 @@
         <v>26</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>23</v>
@@ -853,59 +1133,159 @@
         <v>24</v>
       </c>
       <c r="AA2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AG2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AL2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AQ2" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX2" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/Hotelpositive.xlsx
+++ b/Excel/Hotelpositive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="121">
   <si>
     <t>Username</t>
   </si>
@@ -99,9 +99,6 @@
     <t>AEBR01</t>
   </si>
   <si>
-    <t>BRANCH - Ms. Comp 2 Branch  B</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>AE - BPS - Comp1</t>
   </si>
   <si>
-    <t>CU101 - Mr. Company 1 User 01</t>
-  </si>
-  <si>
     <t>Hotelcity</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>12HOT</t>
   </si>
   <si>
-    <t>single</t>
-  </si>
-  <si>
     <t>Full Board</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>HDFC Card</t>
   </si>
   <si>
-    <t>AED</t>
-  </si>
-  <si>
     <t>Taxcodee</t>
   </si>
   <si>
@@ -376,6 +364,21 @@
   </si>
   <si>
     <t>8820112784</t>
+  </si>
+  <si>
+    <t>Ms. Comp 2 Branch  B</t>
+  </si>
+  <si>
+    <t>Mr. Company 1  User 01</t>
+  </si>
+  <si>
+    <t>Single Room</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AEDName</t>
   </si>
 </sst>
 </file>
@@ -759,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,7 +796,7 @@
     <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.28515625" customWidth="1"/>
     <col min="30" max="30" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" customWidth="1"/>
     <col min="32" max="32" width="14.140625" customWidth="1"/>
     <col min="33" max="35" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="38" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -886,187 +889,187 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="AM1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="AW1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BK1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="BN1" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BO1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BX1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="BU1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BX1" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="BY1" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:77">
@@ -1080,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>23</v>
@@ -1101,205 +1104,205 @@
         <v>25</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AA2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="AG2" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AL2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AQ2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AS2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AY2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AX2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="AZ2" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BA2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD2" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BE2" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BH2" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BI2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="BJ2" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BK2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="BL2" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BM2" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BN2" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BO2" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="BQ2" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="BR2" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BS2" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BT2" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BU2" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BV2" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BW2" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BX2" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hotelpositive.xlsx
+++ b/Excel/Hotelpositive.xlsx
@@ -369,9 +369,6 @@
     <t>Ms. Comp 2 Branch  B</t>
   </si>
   <si>
-    <t>Mr. Company 1  User 01</t>
-  </si>
-  <si>
     <t>Single Room</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>AEDName</t>
+  </si>
+  <si>
+    <t>Mr. Company</t>
   </si>
 </sst>
 </file>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AV8" sqref="AV8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>25</v>
@@ -1164,7 +1164,7 @@
         <v>53</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>54</v>
@@ -1188,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AN2" s="6" t="s">
         <v>96</v>
@@ -1206,7 +1206,7 @@
         <v>65</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT2" s="7" t="s">
         <v>66</v>
